--- a/참조자료/매입매출데이터(2019-06-26) .xlsx
+++ b/참조자료/매입매출데이터(2019-06-26) .xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7647" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7647" uniqueCount="1745">
   <si>
     <t>매입매출 원장</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5398,14 +5398,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Nvarchar2(5)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nvarchar2(1)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Nvarchar(1)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5415,6 +5407,10 @@
   </si>
   <si>
     <t>매입:1 매출 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar2(10)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6326,7 +6322,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -45702,7 +45698,7 @@
         <v>524</v>
       </c>
       <c r="I194" s="8">
-        <f t="shared" ref="I194:I257" si="3">H194*G194</f>
+        <f t="shared" ref="I194:I233" si="3">H194*G194</f>
         <v>43492</v>
       </c>
     </row>
@@ -54900,7 +54896,7 @@
         <v>500</v>
       </c>
       <c r="I258" s="9">
-        <f t="shared" ref="I258:I321" si="4">H258*G258</f>
+        <f t="shared" ref="I258:I260" si="4">H258*G258</f>
         <v>38500</v>
       </c>
     </row>
@@ -55640,8 +55636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H26" sqref="E26:H29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -56593,7 +56589,7 @@
         <v>1421</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -56640,7 +56636,7 @@
         <v>1412</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>1741</v>
+        <v>1420</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="24" t="s">
@@ -56663,7 +56659,7 @@
         <v>1413</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>1741</v>
+        <v>1420</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="24" t="s">
@@ -56680,13 +56676,13 @@
         <v>894</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>1415</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="24" t="s">
@@ -56696,7 +56692,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="38" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -57087,7 +57083,7 @@
   <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
